--- a/Backend/staticfiles/files/create_staff.xlsx
+++ b/Backend/staticfiles/files/create_staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\Git_Repository\school-management-system\Backend\staticfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\Git_Repository\school-management-system\Backend\staticfiles\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423EE92-6E8F-47D8-9E84-45047296BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC91F75-E3DC-40E5-8721-D018DCA7A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05CDD563-9ACE-417C-B894-FC9337A533D0}"/>
   </bookViews>
@@ -540,12 +540,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43" style="7" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1994,7 +1994,7 @@
       <c r="E201" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fy1FF/LQhY2r6sD3V8BuFRPAOhjPWIVpm+UL6sjunGLW0phxjEd/nyqTzqPbKt8aGWc1H4xvdpqREsGm1Dh6TQ==" saltValue="DalUXAHzH/I+v8AfoXlJlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
